--- a/example/compounds.xlsx
+++ b/example/compounds.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longd\OneDrive - The University of Auckland\Documents\UoA Research\MS_Research\MS-Binding-Sites-Identification\src\defaults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longd\OneDrive - The University of Auckland\Documents\UoA Research\MS_Research\MS-Binding-Sites-Identification\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E898E4B-17F3-4A96-94BF-E137160BE787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE781E3F-B308-412A-907A-7668659AC186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/example/compounds.xlsx
+++ b/example/compounds.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longd\OneDrive - The University of Auckland\Documents\UoA Research\MS_Research\MS-Binding-Sites-Identification\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longd\OneDrive - The University of Auckland\Documents\UoA Research\MS_Research\MS-Binding-Sites-Identification\Data\Compound Constraints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE781E3F-B308-412A-907A-7668659AC186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0C1D61-4BA6-4C6D-8EA3-F3284A17EF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9285E766-A2F0-468F-A437-F1A0B778572D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Ubiquitin</t>
+  </si>
+  <si>
+    <t>C378H629N105O118S1</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Pt</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
   <si>
     <t>Water</t>
   </si>
@@ -47,69 +77,44 @@
     <t>Cl</t>
   </si>
   <si>
-    <t>Platinum</t>
-  </si>
-  <si>
-    <t>Pt</t>
-  </si>
-  <si>
-    <t>NH3</t>
-  </si>
-  <si>
-    <t>Ammonia</t>
-  </si>
-  <si>
-    <t>Sodium</t>
-  </si>
-  <si>
-    <t>Na</t>
-  </si>
-  <si>
-    <t>Potassium</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Ubiquitin</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Primaries</t>
-  </si>
-  <si>
-    <t>C378H629N105O118S1</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>MPM</t>
+    <t>Compound/Fragment</t>
+  </si>
+  <si>
+    <t>Maximum number of the corresponding ligand per metal</t>
+  </si>
+  <si>
+    <t>Charge of compound/fragment</t>
+  </si>
+  <si>
+    <t>Compound/Fragment Type</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Formula/Sequence</t>
+  </si>
+  <si>
+    <t>Compound/Fragment Types</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -125,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -133,14 +138,236 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,7 +402,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -187,7 +414,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -234,6 +461,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -269,6 +513,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,185 +681,605 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB47B952-286B-4915-A46D-0B02282CDC08}">
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.1796875" style="1"/>
-    <col min="5" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="19" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.90625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="16"/>
+    <col min="5" max="5" width="20" style="17" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="28.36328125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>6</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>6</v>
       </c>
-      <c r="F6" s="1">
+      <c r="E6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G11" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D8CD0C68-0857-4519-A5D3-DECF1EE4FB2D}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B4B63E-D6FF-437A-B4C0-78B98FBC42FB}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/example/compounds.xlsx
+++ b/example/compounds.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longd\OneDrive - The University of Auckland\Documents\UoA Research\MS_Research\MS-Binding-Sites-Identification\Data\Compound Constraints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longd\OneDrive - The University of Auckland\Documents\UoA Research\MS_Research\MS-Binding-Sites-Identification\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0C1D61-4BA6-4C6D-8EA3-F3284A17EF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EB4C11-5C70-45DA-B28B-36B608201DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9285E766-A2F0-468F-A437-F1A0B778572D}"/>
   </bookViews>
@@ -95,10 +95,10 @@
     <t>Protein</t>
   </si>
   <si>
-    <t>Formula/Sequence</t>
-  </si>
-  <si>
     <t>Compound/Fragment Types</t>
+  </si>
+  <si>
+    <t>Formula</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -704,7 +704,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
@@ -1261,7 +1261,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
